--- a/tests/resources/test_master_4_2018.xlsx
+++ b/tests/resources/test_master_4_2018.xlsx
@@ -517,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AMP2009"/>
+  <dimension ref="A1:AMJ2009"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="59" zoomScaleNormal="59" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -37771,7 +37771,7 @@
     <row r="2009" ht="15" customFormat="1" customHeight="1" s="25">
       <c r="A2009" s="25" t="inlineStr">
         <is>
-          <t>Pre-profile CDEL</t>
+          <t xml:space="preserve">Pre-profile CDEL Forecast one off new costs </t>
         </is>
       </c>
       <c r="B2009" s="25" t="n">

--- a/tests/resources/test_master_4_2018.xlsx
+++ b/tests/resources/test_master_4_2018.xlsx
@@ -27129,7 +27129,7 @@
     <row r="1472" ht="15" customHeight="1" s="16">
       <c r="A1472" s="15" t="inlineStr">
         <is>
-          <t>Pre 18-19 RDEL Forecast one off new costs</t>
+          <t xml:space="preserve">Pre-profile RDEL Forecast one off new costs </t>
         </is>
       </c>
       <c r="B1472" s="15" t="n">
@@ -30339,7 +30339,7 @@
     <row r="1629" ht="15" customHeight="1" s="16">
       <c r="A1629" s="15" t="inlineStr">
         <is>
-          <t>Pre 18-19 CDEL Forecast Total</t>
+          <t xml:space="preserve">Pre-profile CDEL Forecast one off new costs </t>
         </is>
       </c>
       <c r="B1629" s="15" t="n">
@@ -30401,7 +30401,7 @@
     <row r="1632" ht="15" customHeight="1" s="16">
       <c r="A1632" s="15" t="inlineStr">
         <is>
-          <t>Pre 18-19 Forecast Non-Gov</t>
+          <t>Pre-profile Forecast Non-Gov</t>
         </is>
       </c>
       <c r="B1632" s="15" t="n">
@@ -30581,7 +30581,7 @@
     <row r="1641" ht="15" customHeight="1" s="16">
       <c r="A1641" s="15" t="inlineStr">
         <is>
-          <t>18-19 CDEL Forecast Total</t>
+          <t>18-19 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1641" s="15" t="n">
@@ -30827,7 +30827,7 @@
     <row r="1653" ht="15" customHeight="1" s="16">
       <c r="A1653" s="15" t="inlineStr">
         <is>
-          <t>19-20 CDEL Forecast Total</t>
+          <t>19-20 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1653" s="15" t="n">
@@ -31103,7 +31103,7 @@
     <row r="1665" ht="15" customHeight="1" s="16">
       <c r="A1665" s="15" t="inlineStr">
         <is>
-          <t>20-21 CDEL Forecast Total</t>
+          <t>20-21 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1665" s="15" t="n">
@@ -31346,7 +31346,7 @@
     <row r="1677" ht="15" customHeight="1" s="16">
       <c r="A1677" s="15" t="inlineStr">
         <is>
-          <t>21-22 CDEL Forecast Total</t>
+          <t>21-22 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1677" s="15" t="n">
@@ -31589,7 +31589,7 @@
     <row r="1689" ht="15" customHeight="1" s="16">
       <c r="A1689" s="15" t="inlineStr">
         <is>
-          <t>22-23 CDEL Forecast Total</t>
+          <t>22-23 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1689" s="15" t="n">
@@ -31832,7 +31832,7 @@
     <row r="1701" ht="15" customHeight="1" s="16">
       <c r="A1701" s="15" t="inlineStr">
         <is>
-          <t>23-24 CDEL Forecast Total</t>
+          <t>23-24 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1701" s="15" t="n">
@@ -32075,7 +32075,7 @@
     <row r="1713" ht="15" customHeight="1" s="16">
       <c r="A1713" s="15" t="inlineStr">
         <is>
-          <t>24-25 CDEL Forecast Total</t>
+          <t>24-25 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1713" s="15" t="n">
@@ -32321,7 +32321,7 @@
     <row r="1725" ht="15" customHeight="1" s="16">
       <c r="A1725" s="15" t="inlineStr">
         <is>
-          <t>25-26 CDEL Forecast Total</t>
+          <t>25-26 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1725" s="15" t="n">
@@ -32567,7 +32567,7 @@
     <row r="1737" ht="15" customHeight="1" s="16">
       <c r="A1737" s="15" t="inlineStr">
         <is>
-          <t>26-27 CDEL Forecast Total</t>
+          <t>26-27 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1737" s="15" t="n">
@@ -32813,7 +32813,7 @@
     <row r="1749" ht="15" customHeight="1" s="16">
       <c r="A1749" s="15" t="inlineStr">
         <is>
-          <t>27-28 CDEL Forecast Total</t>
+          <t>27-28 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1749" s="15" t="n">
@@ -33059,7 +33059,7 @@
     <row r="1761" ht="15" customHeight="1" s="16">
       <c r="A1761" s="15" t="inlineStr">
         <is>
-          <t>Unprofiled CDEL Forecast Total</t>
+          <t>Unprofiled CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1761" s="15" t="n">
@@ -33309,7 +33309,7 @@
     <row r="1773" ht="15" customHeight="1" s="16">
       <c r="A1773" s="15" t="inlineStr">
         <is>
-          <t>Total CDEL Forecast Total</t>
+          <t>Total CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1773" s="15" t="n">
